--- a/testbuild/observations-summary.xlsx
+++ b/testbuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>Profile</t>
   </si>
@@ -98,6 +98,24 @@
     <t>null#29463-7, null#27113001</t>
   </si>
   <si>
+    <t>vkp-Observation-CFSscore</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - CFS score</t>
+  </si>
+  <si>
+    <t>null#763264000</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
     <t>vkp-Observation-Consciousness</t>
   </si>
   <si>
@@ -105,15 +123,6 @@
   </si>
   <si>
     <t>null#1104441000000107</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
     <t>vkp-Observation-Heartrate</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -542,7 +551,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -551,13 +560,13 @@
         <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>19</v>
@@ -577,7 +586,7 @@
         <v>38</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
@@ -586,13 +595,13 @@
         <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>19</v>
@@ -612,7 +621,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
@@ -621,13 +630,13 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>
@@ -671,6 +680,41 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>
